--- a/uploads/new friday schedule.xlsx
+++ b/uploads/new friday schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\nso_schedules\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05005EF1-7A2B-4996-B870-B7C1F53535B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A9B865-BFC7-41F0-A81E-C340CD4B8C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{E9B1CDA0-05DD-4E1B-8A94-C23A40EA433C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="253">
   <si>
     <t>Names</t>
   </si>
@@ -780,6 +780,21 @@
   </si>
   <si>
     <t>Emily Olsen</t>
+  </si>
+  <si>
+    <t>Maria Berger</t>
+  </si>
+  <si>
+    <t>Colter Hinkley</t>
+  </si>
+  <si>
+    <t>Gentri Garner</t>
+  </si>
+  <si>
+    <t>Ember Rosier</t>
+  </si>
+  <si>
+    <t>Drew Torrens</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACD6B92-70A4-4E82-AB69-5ADAB2660FF8}">
-  <dimension ref="A1:C229"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2919,122 +2934,114 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B190" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="C190" s="4"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B200" s="4"/>
       <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B201" s="4"/>
       <c r="C201" s="4"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B202" s="4"/>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B203" s="4"/>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B204" s="4"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>218</v>
@@ -3043,7 +3050,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>218</v>
@@ -3052,7 +3059,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>218</v>
@@ -3061,7 +3068,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>218</v>
@@ -3070,7 +3077,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>218</v>
@@ -3079,7 +3086,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>218</v>
@@ -3088,7 +3095,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>218</v>
@@ -3097,7 +3104,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>218</v>
@@ -3106,7 +3113,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>218</v>
@@ -3115,7 +3122,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>218</v>
@@ -3124,7 +3131,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>218</v>
@@ -3133,7 +3140,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>218</v>
@@ -3142,7 +3149,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>218</v>
@@ -3151,7 +3158,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>218</v>
@@ -3160,7 +3167,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>218</v>
@@ -3169,7 +3176,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>218</v>
@@ -3178,7 +3185,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>218</v>
@@ -3187,7 +3194,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>218</v>
@@ -3196,7 +3203,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>218</v>
@@ -3205,7 +3212,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>218</v>
@@ -3214,7 +3221,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>218</v>
@@ -3223,7 +3230,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B226" s="4" t="s">
         <v>218</v>
@@ -3232,7 +3239,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B227" s="4" t="s">
         <v>218</v>
@@ -3241,7 +3248,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>218</v>
@@ -3249,13 +3256,58 @@
       <c r="C228" s="4"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C229" s="4"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C230" s="4"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C231" s="4"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C232" s="4"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C233" s="4"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B234" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C229" s="6"/>
+      <c r="C234" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
